--- a/output/item/슬리퍼/2021-12-18_슬리퍼.xlsx
+++ b/output/item/슬리퍼/2021-12-18_슬리퍼.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스슬라이드 실내화 &lt;b&gt;슬리퍼&lt;/b&gt; BA8775 B41720 FZ0387 FZ0388</t>
+          <t>아디다스 알파바운스슬라이드 실내화 슬리퍼 BA8775 B41720 FZ0387 FZ0388</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아디다스 듀라모 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; FY8786</t>
+          <t>아디다스 듀라모 슬라이드 슬리퍼 FY8786</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>크록스 공용 바야밴드 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 20SUSL205733</t>
+          <t>크록스 공용 바야밴드 슬라이드 슬리퍼 20SUSL205733</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아디다스 남여공용 &lt;b&gt;슬리퍼&lt;/b&gt; 알파바운스 슬라이드 ALPHABOUNCE SLIDE FZ0387</t>
+          <t>아디다스 남여공용 슬리퍼 알파바운스 슬라이드 ALPHABOUNCE SLIDE FZ0387</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SNRD 군납용&lt;b&gt;슬리퍼&lt;/b&gt; 보급 군용 군대 군인 군용&lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>SNRD 군납용슬리퍼 보급 군용 군대 군인 군용슬리퍼</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 CF 로고 &lt;b&gt;슬리퍼&lt;/b&gt; CG3425</t>
+          <t>아디다스 아딜렛 CF 로고 슬리퍼 CG3425</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>크록스 바야밴드 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 205392-066</t>
+          <t>크록스 바야밴드 슬라이드 슬리퍼 205392-066</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>푸마 &lt;b&gt;슬리퍼&lt;/b&gt; 스커프 패딩 방한 384945-01</t>
+          <t>푸마 슬리퍼 스커프 패딩 방한 384945-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>크록스 슬라이드 사무실 &lt;b&gt;슬리퍼&lt;/b&gt; 205733</t>
+          <t>크록스 슬라이드 사무실 슬리퍼 205733</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>크록스 크록밴드Ⅲ 205733 &lt;b&gt;슬리퍼&lt;/b&gt; 3종 모음 택1</t>
+          <t>크록스 크록밴드Ⅲ 205733 슬리퍼 3종 모음 택1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>뉴발란스 NEW BALANCE &lt;b&gt;슬리퍼&lt;/b&gt; unisex SD1501</t>
+          <t>뉴발란스 NEW BALANCE 슬리퍼 unisex SD1501</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>언더아머 UA 남성 플레이메이커 픽스드 스트랩 &lt;b&gt;슬리퍼&lt;/b&gt; 3000061</t>
+          <t>언더아머 UA 남성 플레이메이커 픽스드 스트랩 슬리퍼 3000061</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; 듀라모 알파바운스 BA8775 B41720</t>
+          <t>아디다스 슬리퍼 듀라모 알파바운스 BA8775 B41720</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>푸마 로얄캣 컴포트 벨크로 &lt;b&gt;슬리퍼&lt;/b&gt; 372280-02</t>
+          <t>푸마 로얄캣 컴포트 벨크로 슬리퍼 372280-02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>콜맨 콤테 방한 &lt;b&gt;슬리퍼&lt;/b&gt; 남성 털 실내화</t>
+          <t>콜맨 콤테 방한 슬리퍼 남성 털 실내화</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>나이키 베나시 JDI &lt;b&gt;슬리퍼&lt;/b&gt; 343880-090</t>
+          <t>나이키 베나시 JDI 슬리퍼 343880-090</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>푸마 공용 스커프 털 &lt;b&gt;슬리퍼&lt;/b&gt; Scuff Sherpa 셰르파 &lt;b&gt;슬리퍼&lt;/b&gt; 384943</t>
+          <t>푸마 공용 스커프 털 슬리퍼 Scuff Sherpa 셰르파 슬리퍼 384943</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>나이키 카와 샤워 &lt;b&gt;슬리퍼&lt;/b&gt; 832528-001</t>
+          <t>나이키 카와 샤워 슬리퍼 832528-001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; 아딜렛 컴포트 EG1850</t>
+          <t>아디다스 슬리퍼 아딜렛 컴포트 EG1850</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>소프트 남성 남자 사무실 &lt;b&gt;슬리퍼&lt;/b&gt; 실내화 샌들</t>
+          <t>소프트 남성 남자 사무실 슬리퍼 실내화 샌들</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>남성 여성 커플 겨울 털 &lt;b&gt;슬리퍼&lt;/b&gt; 실내화 WT9771</t>
+          <t>남성 여성 커플 겨울 털 슬리퍼 실내화 WT9771</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>노르딕 겨울 캠핑 슈즈 방한 남자 털 &lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>노르딕 겨울 캠핑 슈즈 방한 남자 털 슬리퍼</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>휠라 TAPER 테이퍼 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 1SM00559</t>
+          <t>휠라 TAPER 테이퍼 슬라이드 슬리퍼 1SM00559</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 남여공용 레스터 뮬 VE 겨울 &lt;b&gt;슬리퍼&lt;/b&gt; DXSH4A061</t>
+          <t>디스커버리익스페디션 남여공용 레스터 뮬 VE 겨울 슬리퍼 DXSH4A061</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 오프코트 슬라이드 BQ4639-001</t>
+          <t>나이키 슬리퍼 오프코트 슬라이드 BQ4639-001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>아디다스 남여공용 &lt;b&gt;슬리퍼&lt;/b&gt; 아딜렛컴포트 FX4293</t>
+          <t>아디다스 남여공용 슬리퍼 아딜렛컴포트 FX4293</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>호주 어그 UGG 블레드 남자 양털&lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>호주 어그 UGG 블레드 남자 양털슬리퍼</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>뉴발란스 남성 &lt;b&gt;슬리퍼&lt;/b&gt; SD1101HWB</t>
+          <t>뉴발란스 남성 슬리퍼 SD1101HWB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>슈펜 전황일 콜라보 남성 캠핑 리커버리 샌들 &lt;b&gt;슬리퍼&lt;/b&gt; AFDU79S07</t>
+          <t>슈펜 전황일 콜라보 남성 캠핑 리커버리 샌들 슬리퍼 AFDU79S07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>휠라 드리프터 테이피테잎 &lt;b&gt;슬리퍼&lt;/b&gt; 1SM00561</t>
+          <t>휠라 드리프터 테이피테잎 슬리퍼 1SM00561</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>언더아머 이그나이트 5 &lt;b&gt;슬리퍼&lt;/b&gt; 1287318-100</t>
+          <t>언더아머 이그나이트 5 슬리퍼 1287318-100</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 아쿠아 &lt;b&gt;슬리퍼&lt;/b&gt; F35550</t>
+          <t>아디다스 아딜렛 아쿠아 슬리퍼 F35550</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>버켄스탁 보스턴 타우페 SFB 남성 &lt;b&gt;슬리퍼&lt;/b&gt; REGULAR 560771</t>
+          <t>버켄스탁 보스턴 타우페 SFB 남성 슬리퍼 REGULAR 560771</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>페이퍼플레인 남녀공용 방한화 털&lt;b&gt;슬리퍼&lt;/b&gt; 실내화 PP1508</t>
+          <t>페이퍼플레인 남녀공용 방한화 털슬리퍼 실내화 PP1508</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>크록스 슬라이드 크록밴드 3 &lt;b&gt;슬리퍼&lt;/b&gt; 205733-462</t>
+          <t>크록스 슬라이드 크록밴드 3 슬리퍼 205733-462</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>언더아머 &lt;b&gt;슬리퍼&lt;/b&gt; 이그나이트 3022711</t>
+          <t>언더아머 슬리퍼 이그나이트 3022711</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>푸마 &lt;b&gt;슬리퍼&lt;/b&gt; Divecat V2 369400</t>
+          <t>푸마 슬리퍼 Divecat V2 369400</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>어그 남여공용 양모 &lt;b&gt;슬리퍼&lt;/b&gt; 2색상</t>
+          <t>어그 남여공용 양모 슬리퍼 2색상</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; A23- 듀라모 슬라이드 FY6034</t>
+          <t>아디다스 슬리퍼 A23- 듀라모 슬라이드 FY6034</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>베어파우 ROGER 양털&lt;b&gt;슬리퍼&lt;/b&gt; mens</t>
+          <t>베어파우 ROGER 양털슬리퍼 mens</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 카와 슬라이드 832646-010 남성</t>
+          <t>나이키 슬리퍼 카와 슬라이드 832646-010 남성</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>나이키 빅토리원 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 남자 여자 학생 실내화 CN9675-100</t>
+          <t>나이키 빅토리원 슬라이드 슬리퍼 남자 여자 학생 실내화 CN9675-100</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>수부 수부 방한 패딩 &lt;b&gt;슬리퍼&lt;/b&gt; 다운 샌들 SUBU-BK</t>
+          <t>수부 수부 방한 패딩 슬리퍼 다운 샌들 SUBU-BK</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>뉴발란스 1501 슬라이드 벨크로 &lt;b&gt;슬리퍼&lt;/b&gt; 남자 여자 학교 찍찍이 SD1501ILG</t>
+          <t>뉴발란스 1501 슬라이드 벨크로 슬리퍼 남자 여자 학교 찍찍이 SD1501ILG</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 아쿠아 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; F35543</t>
+          <t>아디다스 아딜렛 아쿠아 슬라이드 슬리퍼 F35543</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>국내산 버켄 보스턴 털&lt;b&gt;슬리퍼&lt;/b&gt; 겨울 블로퍼 실내화 사무실용 남녀공용 커플</t>
+          <t>국내산 버켄 보스턴 털슬리퍼 겨울 블로퍼 실내화 사무실용 남녀공용 커플</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>코스트코 털크록스 크록스털신 가을겨울 발편한 따뜻한 주방 작업 사무실 털&lt;b&gt;슬리퍼&lt;/b&gt; 280</t>
+          <t>코스트코 털크록스 크록스털신 가을겨울 발편한 따뜻한 주방 작업 사무실 털슬리퍼 280</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 클로그 &lt;b&gt;슬리퍼&lt;/b&gt; 신발 FY8970</t>
+          <t>아디다스 아딜렛 클로그 슬리퍼 신발 FY8970</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>오즈웨어 메이슨 남성 &lt;b&gt;슬리퍼&lt;/b&gt; OB687</t>
+          <t>오즈웨어 메이슨 남성 슬리퍼 OB687</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>호카오네오네 호카 남성 오라 리커버리 &lt;b&gt;슬리퍼&lt;/b&gt; BBLC 1099674</t>
+          <t>호카오네오네 호카 남성 오라 리커버리 슬리퍼 BBLC 1099674</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 신발 다이브 플러스 V2 &lt;b&gt;슬리퍼&lt;/b&gt; N211AFW150</t>
+          <t>내셔널지오그래픽 신발 다이브 플러스 V2 슬리퍼 N211AFW150</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>나이키 250 오프코트 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; BQ4639-012</t>
+          <t>나이키 250 오프코트 슬라이드 슬리퍼 BQ4639-012</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt;모음 외3종 BA8775</t>
+          <t>아디다스 알파바운스 슬라이드 슬리퍼모음 외3종 BA8775</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>뉴발란스 NB 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 남자 여자 실내화 신발 SD1101HBB</t>
+          <t>뉴발란스 NB 슬라이드 슬리퍼 남자 여자 실내화 신발 SD1101HBB</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>언더아머 UA 코어 PTH &lt;b&gt;슬리퍼&lt;/b&gt; 3021286</t>
+          <t>언더아머 UA 코어 PTH 슬리퍼 3021286</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>휠라 드리프터 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; WWT WNV 1SM00560</t>
+          <t>휠라 드리프터 슬라이드 슬리퍼 WWT WNV 1SM00560</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>우포스 &lt;b&gt;슬리퍼&lt;/b&gt; OOAHH BLACK</t>
+          <t>우포스 슬리퍼 OOAHH BLACK</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 컴포트 &lt;b&gt;슬리퍼&lt;/b&gt; CG3425</t>
+          <t>아디다스 아딜렛 컴포트 슬리퍼 CG3425</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>버켄스탁 취리히 타우페 레귤러 &lt;b&gt;슬리퍼&lt;/b&gt; 1009532</t>
+          <t>버켄스탁 취리히 타우페 레귤러 슬리퍼 1009532</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>크록스 2종균일가 크록밴드 II 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 204108</t>
+          <t>크록스 2종균일가 크록밴드 II 슬라이드 슬리퍼 204108</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 다이브 플러스 빅로고 &lt;b&gt;슬리퍼&lt;/b&gt; N205AFW900</t>
+          <t>내셔널지오그래픽 다이브 플러스 빅로고 슬리퍼 N205AFW900</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 빅토리 원 슬라이드 흰파 CN9675-102</t>
+          <t>나이키 슬리퍼 빅토리 원 슬라이드 흰파 CN9675-102</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 슬라이드 빅토리 원 CZ5478-001</t>
+          <t>나이키 슬리퍼 슬라이드 빅토리 원 CZ5478-001</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>뉴발란스 NC02 &lt;b&gt;슬리퍼&lt;/b&gt; SD1101FZK</t>
+          <t>뉴발란스 NC02 슬리퍼 SD1101FZK</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>아디다스 남녀공용 &lt;b&gt;슬리퍼&lt;/b&gt; 듀라모 에스엘 슬라이드 DURAMO SLIDE FY8786</t>
+          <t>아디다스 남녀공용 슬리퍼 듀라모 에스엘 슬라이드 DURAMO SLIDE FY8786</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>뉴발란스 토앤토 플립플랍 아이보리 리커버리 쪼리 &lt;b&gt;슬리퍼&lt;/b&gt; SD5601GIV</t>
+          <t>뉴발란스 토앤토 플립플랍 아이보리 리커버리 쪼리 슬리퍼 SD5601GIV</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 CF &lt;b&gt;슬리퍼&lt;/b&gt; 블랙 CG3427</t>
+          <t>아디다스 아딜렛 CF 슬리퍼 블랙 CG3427</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 베네시 JDI 맨즈 343880-090</t>
+          <t>나이키 슬리퍼 베네시 JDI 맨즈 343880-090</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>남녀공용 기모안감 털&lt;b&gt;슬리퍼&lt;/b&gt; 6컬러 DS-AL641</t>
+          <t>남녀공용 기모안감 털슬리퍼 6컬러 DS-AL641</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; NQB 알파바운스 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; B41720</t>
+          <t>아디다스 슬리퍼 NQB 알파바운스 슬라이드 슬리퍼 B41720</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; A4- 빅토리 원 샤워 CZ5478-001</t>
+          <t>나이키 슬리퍼 A4- 빅토리 원 샤워 CZ5478-001</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>뉴발란스 &lt;b&gt;슬리퍼&lt;/b&gt; 1501 남여공용 쿠셔닝 SD1501IWT</t>
+          <t>뉴발란스 슬리퍼 1501 남여공용 쿠셔닝 SD1501IWT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MLB LA 다저스BS 방한 &lt;b&gt;슬리퍼&lt;/b&gt; NW</t>
+          <t>MLB LA 다저스BS 방한 슬리퍼 NW</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>클럽 남성 남자 사무실 &lt;b&gt;슬리퍼&lt;/b&gt; 실내화 샌들 비치</t>
+          <t>클럽 남성 남자 사무실 슬리퍼 실내화 샌들 비치</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>노스페이스 뮬 &lt;b&gt;슬리퍼&lt;/b&gt; 플리스 A NS93M60A</t>
+          <t>노스페이스 뮬 슬리퍼 플리스 A NS93M60A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MLB 방한 EVA&lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>MLB 방한 EVA슬리퍼</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
